--- a/test.xlsx
+++ b/test.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damian\kombajnexcelowy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KombajnExcelowy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A076E97C-C783-4357-9052-CAD06AF741EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>q</t>
   </si>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -350,16 +352,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I42" sqref="A1:I42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3936F00C-1942-417F-A130-E31F965918E1}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -370,102 +498,102 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>10</v>
       </c>
